--- a/scalpel/typeinfer/evaluation/evaluation_outputs/psf__requests.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/psf__requests.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1089"/>
+  <dimension ref="A1:F1090"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'str'}</t>
+          <t>{'str', 'any'}</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'str'}</t>
+          <t>{'str', 'any'}</t>
         </is>
       </c>
       <c r="F107" s="4" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
@@ -5827,9 +5827,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F168" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F168" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -6595,9 +6595,9 @@
           <t>{'any', 'NoneType'}</t>
         </is>
       </c>
-      <c r="F192" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F192" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -21628,12 +21628,12 @@
       </c>
       <c r="E662" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'str'}</t>
-        </is>
-      </c>
-      <c r="F662" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>{'str', 'any'}</t>
+        </is>
+      </c>
+      <c r="F662" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -21660,12 +21660,12 @@
       </c>
       <c r="E663" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F663" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F663" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -21692,7 +21692,7 @@
       </c>
       <c r="E664" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F664" s="3" t="inlineStr">
@@ -21724,12 +21724,12 @@
       </c>
       <c r="E665" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F665" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>generator</t>
+        </is>
+      </c>
+      <c r="F665" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="E690" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'str'}</t>
+          <t>{'str', 'any'}</t>
         </is>
       </c>
       <c r="F690" s="4" t="inlineStr">
@@ -22556,7 +22556,7 @@
       </c>
       <c r="E691" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F691" s="4" t="inlineStr">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="E692" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[None]', 'Tuple[str]'}</t>
+          <t>{'Tuple[str]', 'Tuple[None]'}</t>
         </is>
       </c>
       <c r="F692" s="3" t="inlineStr">
@@ -22620,7 +22620,7 @@
       </c>
       <c r="E693" s="2" t="inlineStr">
         <is>
-          <t>Tuple[None]</t>
+          <t>Tuple[str]</t>
         </is>
       </c>
       <c r="F693" s="3" t="inlineStr">
@@ -24252,7 +24252,7 @@
       </c>
       <c r="E744" s="2" t="inlineStr">
         <is>
-          <t>{'bool', 'empty'}</t>
+          <t>{'empty', 'bool'}</t>
         </is>
       </c>
       <c r="F744" s="3" t="inlineStr">
@@ -24284,12 +24284,12 @@
       </c>
       <c r="E745" s="2" t="inlineStr">
         <is>
-          <t>bool</t>
-        </is>
-      </c>
-      <c r="F745" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F745" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -35260,21 +35260,35 @@
         </is>
       </c>
       <c r="F1088" s="2" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" s="2" t="inlineStr"/>
       <c r="B1089" s="2" t="inlineStr"/>
-      <c r="C1089" s="2" t="inlineStr"/>
-      <c r="D1089" s="2" t="inlineStr"/>
-      <c r="E1089" s="2" t="inlineStr">
+      <c r="C1089" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D1089" s="2" t="n">
+        <v>1148.28</v>
+      </c>
+      <c r="E1089" s="2" t="inlineStr"/>
+      <c r="F1089" s="2" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="2" t="inlineStr"/>
+      <c r="B1090" s="2" t="inlineStr"/>
+      <c r="C1090" s="2" t="inlineStr"/>
+      <c r="D1090" s="2" t="inlineStr"/>
+      <c r="E1090" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F1089" s="2" t="n">
-        <v>378.16</v>
+      <c r="F1090" s="2" t="n">
+        <v>382.76</v>
       </c>
     </row>
   </sheetData>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/psf__requests.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/psf__requests.xlsx
@@ -11040,7 +11040,7 @@
       </c>
       <c r="E331" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'bool'}</t>
+          <t>{'bool', 'any'}</t>
         </is>
       </c>
       <c r="F331" s="4" t="inlineStr">
@@ -11072,7 +11072,7 @@
       </c>
       <c r="E332" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="F332" s="4" t="inlineStr">
@@ -21056,7 +21056,7 @@
       </c>
       <c r="E644" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'OrderedDict'}</t>
+          <t>{'OrderedDict', 'any'}</t>
         </is>
       </c>
       <c r="F644" s="4" t="inlineStr">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="E645" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>OrderedDict</t>
         </is>
       </c>
       <c r="F645" s="4" t="inlineStr">
@@ -21120,7 +21120,7 @@
       </c>
       <c r="E646" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'list'}</t>
+          <t>{'list', 'any'}</t>
         </is>
       </c>
       <c r="F646" s="4" t="inlineStr">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="E647" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>list</t>
         </is>
       </c>
       <c r="F647" s="4" t="inlineStr">
@@ -24252,7 +24252,7 @@
       </c>
       <c r="E744" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'bool'}</t>
+          <t>{'bool', 'empty'}</t>
         </is>
       </c>
       <c r="F744" s="3" t="inlineStr">
@@ -24284,12 +24284,12 @@
       </c>
       <c r="E745" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F745" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F745" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -35252,7 +35252,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1088" s="2" t="inlineStr">
         <is>
@@ -35266,16 +35266,16 @@
     <row r="1089">
       <c r="A1089" s="2" t="inlineStr"/>
       <c r="B1089" s="2" t="inlineStr"/>
-      <c r="C1089" s="2" t="inlineStr">
+      <c r="C1089" s="2" t="inlineStr"/>
+      <c r="D1089" s="2" t="inlineStr"/>
+      <c r="E1089" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D1089" s="2" t="n">
-        <v>1148.28</v>
-      </c>
-      <c r="E1089" s="2" t="inlineStr"/>
-      <c r="F1089" s="2" t="inlineStr"/>
+      <c r="F1089" s="2" t="n">
+        <v>92.08</v>
+      </c>
     </row>
     <row r="1090">
       <c r="A1090" s="2" t="inlineStr"/>
@@ -35284,11 +35284,11 @@
       <c r="D1090" s="2" t="inlineStr"/>
       <c r="E1090" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F1090" s="2" t="n">
-        <v>382.76</v>
+        <v>387.21</v>
       </c>
     </row>
   </sheetData>
